--- a/student/loi-nhap-lieu-ds-lop.xlsx
+++ b/student/loi-nhap-lieu-ds-lop.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Mã lớp</t>
   </si>
@@ -20,19 +20,28 @@
     <t>Tên lớp</t>
   </si>
   <si>
-    <t>K69BBS</t>
+    <t>Mã không hợp lệ</t>
   </si>
   <si>
-    <t>K69-Baby Shark</t>
-  </si>
-  <si>
-    <t>ABCD</t>
-  </si>
-  <si>
-    <t>A B C D</t>
+    <t>Họ đệm không hợp lệ</t>
   </si>
   <si>
     <t>Mã lớp không hợp lệ</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -88,7 +97,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -103,8 +112,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="A2" t="s" s="1">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -112,10 +121,42 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
